--- a/lowcode-excel-parent/excel-engine/src/test/resources/excel解析测试/TextField测试.xlsx
+++ b/lowcode-excel-parent/excel-engine/src/test/resources/excel解析测试/TextField测试.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\java\lowcode\lowcode-engines-java\lowcode-excel-parent\excel-engine\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\java\lowcode\lowcode-engines-java\lowcode-excel-parent\excel-engine\src\test\resources\excel解析测试\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46D2A9F1-EEF4-4016-9641-A3AC06FACB4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A41538F-2465-4330-96B8-FD0C3B76260B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -376,7 +376,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
